--- a/Power Distribution Unit 2019 BOM.xlsx
+++ b/Power Distribution Unit 2019 BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TannerOleksiuk\Documents\GitHub\PDU2019\Project Outputs for Power Distribution Unit 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TannerOleksiuk\Documents\GitHub\PDU2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BD6DCEC0-0AB4-40AA-B1F5-71F7A5CEDC86}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BAB39461-0D74-4710-82AB-695F19FF2672}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{EEAE26A0-BBDF-496F-9D7F-FFF146187249}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="179">
   <si>
     <t>Comment</t>
   </si>
@@ -297,12 +297,6 @@
     <t>P5</t>
   </si>
   <si>
-    <t>431603102</t>
-  </si>
-  <si>
-    <t>0431600104</t>
-  </si>
-  <si>
     <t>2A</t>
   </si>
   <si>
@@ -565,6 +559,9 @@
   </si>
   <si>
     <t>Heatsink for MOSFET</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WM3801-ND</t>
   </si>
 </sst>
 </file>
@@ -962,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B35A3-4F5E-46FB-AB16-A0AEF5E1DC7E}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1130,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1141,7 +1138,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>33</v>
@@ -1164,7 +1161,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>38</v>
@@ -1187,7 +1184,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
@@ -1225,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1248,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1271,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1386,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1409,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1432,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1455,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1469,27 +1466,27 @@
         <v>89</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>10</v>
@@ -1501,426 +1498,426 @@
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F24" s="3">
         <v>7</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F25" s="3">
         <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F27" s="3">
         <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F28" s="3">
         <v>12</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F32" s="3">
         <v>13</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F33" s="3">
         <v>7</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F34" s="3">
         <v>2</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F37" s="3">
         <v>2</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="E39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F41" s="3">
         <v>2</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1930,12 +1927,12 @@
         <v>1</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1946,7 +1943,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>

--- a/Power Distribution Unit 2019 BOM.xlsx
+++ b/Power Distribution Unit 2019 BOM.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TannerOleksiuk\Documents\GitHub\PDU2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uvichybrid\Documents\GitHub\PDU2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BAB39461-0D74-4710-82AB-695F19FF2672}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{EEAE26A0-BBDF-496F-9D7F-FFF146187249}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Power Distribution Unit 2019" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="180">
   <si>
     <t>Comment</t>
   </si>
@@ -562,12 +561,15 @@
   </si>
   <si>
     <t xml:space="preserve"> WM3801-ND</t>
+  </si>
+  <si>
+    <t>Reset relays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -956,11 +958,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B35A3-4F5E-46FB-AB16-A0AEF5E1DC7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1347,7 @@
         <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>68</v>
